--- a/data/trans_orig/Q20A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q20A-Habitat-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02332546723733767</v>
+        <v>0.02233226764328764</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07274983505406746</v>
+        <v>0.07434671766706379</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04484490524641949</v>
+        <v>0.0443522648129988</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05919778080247464</v>
+        <v>0.05809738416099101</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07288287090767578</v>
+        <v>0.06935291323062669</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1006455525515004</v>
+        <v>0.1009354527825106</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05714124681977849</v>
+        <v>0.05757972304991751</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05383840713460436</v>
+        <v>0.05478546608649154</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05110230733399174</v>
+        <v>0.05189467846049638</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09985786354612211</v>
+        <v>0.09924737364749896</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05671464338144261</v>
+        <v>0.0556167611300341</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06116610104027328</v>
+        <v>0.06205010875205152</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0791139663021324</v>
+        <v>0.08012700290219839</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3825641785930464</v>
+        <v>0.3633041201024985</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08977367969534659</v>
+        <v>0.08937774584022905</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1063368199383495</v>
+        <v>0.1054989677721813</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1557127427062212</v>
+        <v>0.1529784057610354</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.170455714964794</v>
+        <v>0.1733620081846959</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1091109350775041</v>
+        <v>0.1067111214320649</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09132519805471839</v>
+        <v>0.08921626218094186</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1020307422673066</v>
+        <v>0.1008028321008041</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2630824817327176</v>
+        <v>0.2526797118043054</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08936741196912501</v>
+        <v>0.08900547487220041</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.08891575584634388</v>
+        <v>0.09155944068036867</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.09104581105054906</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.08611241074764139</v>
+        <v>0.08611241074764141</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.09004385929492571</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04306664545749358</v>
+        <v>0.04292176223468109</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05656205591076036</v>
+        <v>0.05706760776700119</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04357416144450553</v>
+        <v>0.04364664176330211</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05424712184204841</v>
+        <v>0.05371875541519155</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08311180652501879</v>
+        <v>0.08434016924392697</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08794994858275605</v>
+        <v>0.08648218412103931</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07143137236404419</v>
+        <v>0.06893596130642375</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06440041949955878</v>
+        <v>0.06657805095415087</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06937146926106862</v>
+        <v>0.07108503875082335</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07725709951081884</v>
+        <v>0.07857900544764213</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06168858263495215</v>
+        <v>0.06274445121233338</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06818663789840759</v>
+        <v>0.06788375372394713</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1083186587092421</v>
+        <v>0.107199238538733</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1083455128646792</v>
+        <v>0.104491358180353</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1201975421072926</v>
+        <v>0.1208553931105494</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2322152033448721</v>
+        <v>0.2365297521188896</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1681314507719988</v>
+        <v>0.1656392556139265</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1391977810091665</v>
+        <v>0.1402062479803542</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1304578681155769</v>
+        <v>0.1244369648557816</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1125381537283647</v>
+        <v>0.1143279537755243</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1202510589698765</v>
+        <v>0.125464567923232</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1136600622529796</v>
+        <v>0.1128383517535381</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1081884398539925</v>
+        <v>0.1080755499004893</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1492002504284243</v>
+        <v>0.1590920859558226</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.08916816600479577</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.0750619594605592</v>
+        <v>0.07506195946055923</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.09666835570823243</v>
@@ -965,7 +965,7 @@
         <v>0.07359590430069173</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06665386607172874</v>
+        <v>0.06665386607172873</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05148631915257729</v>
+        <v>0.05212062595772655</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05863591776301239</v>
+        <v>0.05663381116453489</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03693296276126878</v>
+        <v>0.03897038496329151</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04036184071565676</v>
+        <v>0.04157710258142046</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08381637533228936</v>
+        <v>0.08328151746666523</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08984054749580395</v>
+        <v>0.08895880301921938</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06447176610468927</v>
+        <v>0.06563559174113742</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05679691431531469</v>
+        <v>0.05728169595286778</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07679164325903071</v>
+        <v>0.07609641754671714</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08252087297326019</v>
+        <v>0.08125733826706046</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05725451450826917</v>
+        <v>0.05730975024558484</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05412925469647036</v>
+        <v>0.05337635494090943</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1250413827794543</v>
+        <v>0.1235619063160925</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1169635247165682</v>
+        <v>0.1159398045928759</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08583352293872555</v>
+        <v>0.08235739733303407</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08130405781409877</v>
+        <v>0.08192914782302202</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.184693783378976</v>
+        <v>0.1885988881426288</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1594645573531704</v>
+        <v>0.1610414244803657</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.126198716815215</v>
+        <v>0.1195967412368879</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.112791779328327</v>
+        <v>0.1045609148612981</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1369098594989032</v>
+        <v>0.1339528500679813</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1272434076661249</v>
+        <v>0.1247870712923352</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09313771991962294</v>
+        <v>0.0958497096508415</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08721554562496878</v>
+        <v>0.08717156177335167</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.1116307914541484</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08512784605747685</v>
+        <v>0.08512784605747686</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.07075904728448663</v>
@@ -1101,7 +1101,7 @@
         <v>0.09286961852972582</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.09265931080239374</v>
+        <v>0.09265931080239373</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04535486706421096</v>
+        <v>0.04577238274112524</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05912196342710412</v>
+        <v>0.0590055186409001</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05070590536045787</v>
+        <v>0.05036805872345051</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06993340110751887</v>
+        <v>0.06867338627768305</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06059625655483543</v>
+        <v>0.06066419614708222</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.090527247878254</v>
+        <v>0.08933068416064904</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0884213800049707</v>
+        <v>0.0892204735880934</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06881905385700132</v>
+        <v>0.06861670524754954</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05746905177521638</v>
+        <v>0.0578287277318137</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08204878123761809</v>
+        <v>0.08178322785781401</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07780212208925166</v>
+        <v>0.07662608903231245</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07541373688088983</v>
+        <v>0.07452557137828955</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08874379316979046</v>
+        <v>0.09459951333081501</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1124906176278786</v>
+        <v>0.1094304567720569</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09666598925447205</v>
+        <v>0.0959786727916144</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2052812407424752</v>
+        <v>0.2103245921185939</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1004680121329787</v>
+        <v>0.09956054596495752</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1620270638229424</v>
+        <v>0.1654644458042209</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1426201887851797</v>
+        <v>0.1435153681386463</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1069743881024958</v>
+        <v>0.1057618456665992</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08827612350697518</v>
+        <v>0.08839649524009358</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1244061094857363</v>
+        <v>0.1259676970037672</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1117582286864143</v>
+        <v>0.1139474732904235</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1477938983551421</v>
+        <v>0.1397939205029305</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.09426175557270114</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0802027686981151</v>
+        <v>0.08020276869811506</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.08139527743033152</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05004257641567882</v>
+        <v>0.04995329917484501</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07390535997694017</v>
+        <v>0.07380649813567272</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05439663523615849</v>
+        <v>0.05426904038419948</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06668770331580398</v>
+        <v>0.06656668487166199</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0854882449517194</v>
+        <v>0.0847645760028522</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1041091586807252</v>
+        <v>0.1043750483939484</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08182818516285628</v>
+        <v>0.08322553829434071</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07073271454786051</v>
+        <v>0.07027311832726192</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07162933994345258</v>
+        <v>0.07159027289372102</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09416166157226261</v>
+        <v>0.09371458663525221</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07140168204576712</v>
+        <v>0.0711163610758596</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0730646222025937</v>
+        <v>0.07265862479696615</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07949197704829494</v>
+        <v>0.07862779879145429</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1325946907467298</v>
+        <v>0.1291914086678558</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08123457080411106</v>
+        <v>0.08407809928559029</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1261569880031893</v>
+        <v>0.1247962138411775</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1221863009491729</v>
+        <v>0.1209374141333079</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1365788836192268</v>
+        <v>0.1367135712971451</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1088355349392404</v>
+        <v>0.1110334512127907</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09143593208752568</v>
+        <v>0.09161534528308479</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09450486455822488</v>
+        <v>0.09461017077948199</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1271276955030947</v>
+        <v>0.1258066720968513</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09160206684278475</v>
+        <v>0.09073533210958651</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1042822245324694</v>
+        <v>0.1045643911013589</v>
       </c>
     </row>
     <row r="19">
